--- a/src/test/java/Excel/FlightData_Template.xlsx
+++ b/src/test/java/Excel/FlightData_Template.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samuel Nezic\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samuel Nezic\IdeaProjects\CucumberIAG\src\test\java\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E8D17E7-2C1A-439C-99F3-23E3AE8CE915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D08866-A5E5-4CC6-8590-C4DB2B9069D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{15C5D190-8B55-41A7-AE81-1E037CBB6904}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Input" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>

--- a/src/test/java/Excel/FlightData_Template.xlsx
+++ b/src/test/java/Excel/FlightData_Template.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samuel Nezic\IdeaProjects\CucumberIAG\src\test\java\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D08866-A5E5-4CC6-8590-C4DB2B9069D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14379359-CEA0-4A14-A7A4-549896E9DFC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{15C5D190-8B55-41A7-AE81-1E037CBB6904}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
+    <sheet name="Output" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Flight Type</t>
   </si>
@@ -51,9 +52,6 @@
     <t>Departure Date</t>
   </si>
   <si>
-    <t>Arrival Date</t>
-  </si>
-  <si>
     <t>Adults</t>
   </si>
   <si>
@@ -82,13 +80,40 @@
   </si>
   <si>
     <t>Multi Destination Date 3</t>
+  </si>
+  <si>
+    <t>Return Date</t>
+  </si>
+  <si>
+    <t>Error?</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>Entry</t>
+  </si>
+  <si>
+    <t>Timestamp</t>
+  </si>
+  <si>
+    <t>Base Fare</t>
+  </si>
+  <si>
+    <t>Fee/Surcharge</t>
+  </si>
+  <si>
+    <t>Addons</t>
+  </si>
+  <si>
+    <t>Total Amount</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,6 +123,13 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -125,10 +157,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -444,80 +493,347 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{354668D4-D94F-4400-B0BC-72EF38E5F017}">
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:E12"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.5703125" customWidth="1"/>
-    <col min="15" max="15" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25.5703125" customWidth="1"/>
+    <col min="1" max="2" width="11.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="7.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="9.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="7.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="18.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="18.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="23.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="20.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="25.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="20.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="25.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="6"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{116CE802-AF6A-49F4-92A0-B86909AD8334}">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="7" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="37.85546875" style="5" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.85546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.85546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.7109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="16384" width="9.140625" style="2" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2"/>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3"/>
+      <c r="B3"/>
+      <c r="C3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4"/>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5"/>
+      <c r="B5"/>
+      <c r="C5"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6"/>
+      <c r="B6"/>
+      <c r="C6"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
